--- a/projects/puerto_rico_stoch/data/data_V.xlsx
+++ b/projects/puerto_rico_stoch/data/data_V.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A419D-E220-4526-8C9A-429A81D32D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA362C6-4173-4AE9-8DCE-F611B44AF513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="220">
   <si>
     <t>connection</t>
   </si>
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,9 +2436,7 @@
       <c r="B12" s="6">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2459,11 +2457,9 @@
         <v>116</v>
       </c>
       <c r="B13" s="6">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2659,9 +2655,7 @@
       <c r="B21" s="22">
         <v>22</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>196</v>
-      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2682,11 +2676,9 @@
         <v>122</v>
       </c>
       <c r="B22" s="22">
-        <v>31</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C22" s="22"/>
       <c r="D22" s="22">
         <v>36.799999999999997</v>
       </c>
@@ -2807,9 +2799,7 @@
       <c r="B27" s="6">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>196</v>
-      </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2830,11 +2820,9 @@
         <v>135</v>
       </c>
       <c r="B28" s="6">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6">
         <v>36.799999999999997</v>
       </c>
@@ -2861,7 +2849,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3296,7 +3284,7 @@
         <v>121</v>
       </c>
       <c r="B21" s="23">
-        <v>1130</v>
+        <v>1060</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23">
@@ -6858,7 +6846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/projects/puerto_rico_stoch/data/data_V.xlsx
+++ b/projects/puerto_rico_stoch/data/data_V.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9825AD-D0BB-445D-B8A7-EEA9E1AA03A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA29F35E-8BD2-483B-A387-6EB0EDBB1EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,7 +1558,7 @@
       <c r="C3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="29">
         <v>34.799999999999997</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1583,7 +1583,7 @@
       <c r="C4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="29">
         <v>29.9</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1606,7 +1606,7 @@
       <c r="C5" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="29">
         <v>40</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1629,7 +1629,7 @@
       <c r="C6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="29">
         <v>35.299999999999997</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1652,7 +1652,7 @@
       <c r="C7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="29">
         <v>34.6</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1675,7 +1675,7 @@
       <c r="C8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="29">
         <v>34.1</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -1698,7 +1698,7 @@
       <c r="C9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1723,7 +1723,7 @@
       <c r="C10" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="29">
         <v>19</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -1748,7 +1748,7 @@
       <c r="C11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="29">
         <v>45.5</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1773,7 +1773,7 @@
       <c r="C12" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -1798,7 +1798,7 @@
       <c r="C13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -1821,7 +1821,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="22">
+      <c r="D14" s="25">
         <v>85</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -1846,7 +1846,7 @@
       <c r="C15" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="25">
         <v>25.3</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -1946,8 +1946,8 @@
       <c r="C19" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D19" s="22">
-        <v>62.02</v>
+      <c r="D19" s="25">
+        <v>62.12</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>149</v>
@@ -1971,8 +1971,8 @@
       <c r="C20" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="22">
-        <v>42.47</v>
+      <c r="D20" s="25">
+        <v>42.34</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>149</v>
@@ -1996,7 +1996,7 @@
       <c r="C21" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="25">
         <v>36.799999999999997</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -2021,7 +2021,7 @@
       <c r="C22" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="25">
         <v>36.799999999999997</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -2044,7 +2044,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="9">
+      <c r="D23" s="29">
         <v>85</v>
       </c>
       <c r="E23" s="9" t="s">
@@ -2069,7 +2069,7 @@
       <c r="C24" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="29">
         <v>25.3</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -2094,7 +2094,7 @@
       <c r="C25" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="29">
         <v>54.17</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -2119,8 +2119,8 @@
       <c r="C26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="9">
-        <v>37.6</v>
+      <c r="D26" s="29">
+        <v>37.11</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>149</v>
@@ -2144,7 +2144,7 @@
       <c r="C27" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -2169,7 +2169,7 @@
       <c r="C28" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="29">
         <v>36.799999999999997</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -3099,7 +3099,7 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25">
-        <v>705.6</v>
+        <v>738</v>
       </c>
       <c r="G21" s="25"/>
     </row>
@@ -3112,7 +3112,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25">
-        <v>71.64</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="G22" s="25"/>
     </row>
@@ -3120,6 +3120,7 @@
       <c r="A23" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -3131,6 +3132,7 @@
       <c r="E24" t="s">
         <v>143</v>
       </c>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -3142,26 +3144,28 @@
       <c r="C25" s="6" t="s">
         <v>136</v>
       </c>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F27">
-        <v>705.6</v>
+      <c r="F27" s="29">
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="3">
-        <v>71.64</v>
+      <c r="F28" s="25">
+        <v>75.239999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3179,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5655,7 +5659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
@@ -6371,7 +6375,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6474,8 +6478,8 @@
       <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="D3">
-        <v>2.66</v>
+      <c r="D3" s="29">
+        <v>0.72</v>
       </c>
       <c r="E3" t="s">
         <v>92</v>
@@ -6501,8 +6505,8 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4">
-        <v>2.7</v>
+      <c r="D4" s="29">
+        <v>-0.16</v>
       </c>
       <c r="E4" t="s">
         <v>92</v>
@@ -6531,8 +6535,8 @@
       <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D5">
-        <v>2.8</v>
+      <c r="D5" s="29">
+        <v>0.23</v>
       </c>
       <c r="E5" t="s">
         <v>92</v>
@@ -6557,6 +6561,7 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="D6" s="29"/>
       <c r="J6">
         <v>40</v>
       </c>
@@ -6571,6 +6576,7 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="D7" s="29"/>
       <c r="H7">
         <v>39.51</v>
       </c>
@@ -6594,8 +6600,8 @@
       <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="D8">
-        <v>3.05</v>
+      <c r="D8" s="29">
+        <v>1.2</v>
       </c>
       <c r="E8" t="s">
         <v>92</v>
@@ -6623,8 +6629,8 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9">
-        <v>2.0699999999999998</v>
+      <c r="D9" s="29">
+        <v>1.1399999999999999</v>
       </c>
       <c r="E9" t="s">
         <v>92</v>
@@ -6684,7 +6690,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6952,7 +6958,7 @@
         <v>129</v>
       </c>
       <c r="I9">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">

--- a/projects/puerto_rico_stoch/data/data_V.xlsx
+++ b/projects/puerto_rico_stoch/data/data_V.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA29F35E-8BD2-483B-A387-6EB0EDBB1EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4DDBC-CEDA-47DC-A550-75B1CD05EADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1475,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D28"/>
     </sheetView>
   </sheetViews>
@@ -3604,7 +3604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>

--- a/projects/puerto_rico_stoch/data/data_V.xlsx
+++ b/projects/puerto_rico_stoch/data/data_V.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4DDBC-CEDA-47DC-A550-75B1CD05EADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E150F5-70B8-497C-811B-CECABC725BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -830,6 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3604,7 +3605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -5659,8 +5660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5767,8 +5768,8 @@
       <c r="G3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="1">
-        <v>2084.1332580463013</v>
+      <c r="H3" s="31">
+        <v>2251.8040000000001</v>
       </c>
       <c r="I3" t="s">
         <v>199</v>
@@ -5798,8 +5799,8 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4">
-        <v>688.39634941329859</v>
+      <c r="H4" s="29">
+        <v>500.16300000000001</v>
       </c>
       <c r="I4" t="s">
         <v>199</v>
@@ -5833,8 +5834,8 @@
       <c r="G5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="1">
-        <v>323.88212908717634</v>
+      <c r="H5" s="31">
+        <v>1057.1590000000001</v>
       </c>
       <c r="I5" t="s">
         <v>199</v>
@@ -5868,8 +5869,8 @@
       <c r="G6" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="1">
-        <v>539.80354847862725</v>
+      <c r="H6" s="31">
+        <v>634.29600000000005</v>
       </c>
       <c r="I6" t="s">
         <v>199</v>
@@ -5894,6 +5895,7 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="H7" s="29"/>
       <c r="J7">
         <v>30</v>
       </c>
@@ -5923,8 +5925,8 @@
       <c r="G8" t="s">
         <v>184</v>
       </c>
-      <c r="H8">
-        <v>4531.3620000000001</v>
+      <c r="H8" s="32">
+        <v>4867.5</v>
       </c>
       <c r="I8" t="s">
         <v>199</v>
@@ -5958,8 +5960,8 @@
       <c r="G9" t="s">
         <v>184</v>
       </c>
-      <c r="H9">
-        <v>7746.9369999999999</v>
+      <c r="H9" s="32">
+        <v>15083.665999999999</v>
       </c>
       <c r="I9" t="s">
         <v>199</v>
